--- a/PowerQuery/CheatSheet.xlsx
+++ b/PowerQuery/CheatSheet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MDM\PowerQuery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MDM\Power-BI-and-Excel-Data-Integrations\PowerQuery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF5AFC6-5718-4B03-B3A5-7ED16A718290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F35BA3-0908-4AFF-A4E7-714B86DCF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -74,17 +74,20 @@
     <t>"Is Red"</t>
   </si>
   <si>
-    <t>File Link</t>
-  </si>
-  <si>
-    <t>Git hub link</t>
+    <t>Example File</t>
+  </si>
+  <si>
+    <t>Git hub Link</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +95,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -109,32 +134,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -152,106 +224,74 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D780FC-F0FE-187B-0C61-CB96B4EF6BC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12336780" y="510540"/>
-          <a:ext cx="426720" cy="426720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EFE359-DA4F-EB14-DBE2-19059A7448D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13037820" y="457200"/>
-          <a:ext cx="495300" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>60960</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>62865</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>308610</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B979A9E5-3A3F-DDCA-E13E-14C9D24299E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -517,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD99D2-52B7-4F1F-AFCD-214B73E2DC33}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,87 +573,100 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -625,7 +678,38 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I3:I5" r:id="rId1" tooltip="Github" display="Git Hub" xr:uid="{86EF59F5-15FF-448C-811E-E5AC6798E711}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>60960</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>312420</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/PowerQuery/CheatSheet.xlsx
+++ b/PowerQuery/CheatSheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MDM\Power-BI-and-Excel-Data-Integrations\PowerQuery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F35BA3-0908-4AFF-A4E7-714B86DCF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7B11E8-47A4-4D2A-8C94-76CE87206FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -81,6 +82,87 @@
   </si>
   <si>
     <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Text.Combine(List.Union( {Text.Split([Text1], " "), Text.Split([Text2], " ")}), " ")</t>
+  </si>
+  <si>
+    <t>2. Union of lists</t>
+  </si>
+  <si>
+    <t>"Apple Is Red Color"</t>
+  </si>
+  <si>
+    <t>Git HUb</t>
+  </si>
+  <si>
+    <t>To find all unique words in two or more texts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzzy String Match </t>
+  </si>
+  <si>
+    <t>Number.Round(List.Count(Text.split([Common_Words], " ")) / List.Count(Text.split([Union_words], " ")) * 100, 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Count words in common </t>
+  </si>
+  <si>
+    <t>2. Count total words</t>
+  </si>
+  <si>
+    <t>Reverse the List</t>
+  </si>
+  <si>
+    <t>List.Revese(My_List)</t>
+  </si>
+  <si>
+    <t>MyList = {1,2,3,4,5}</t>
+  </si>
+  <si>
+    <t>{5,4,3,2,1}</t>
+  </si>
+  <si>
+    <t>Reverse the text String</t>
+  </si>
+  <si>
+    <t>(string as text) =&gt;
+let
+    words_List = Text.Split(string, " "),     
+    reversed_List = List.Reverse(words_List), 
+    reversed_Text = Text.Combine(reversed_List, " ") 
+in
+    reversed_Text</t>
+  </si>
+  <si>
+    <t>Custom Function</t>
+  </si>
+  <si>
+    <t>Text.Combine(List.Reverse(Text.Split([Original_column], " ")), " ")</t>
+  </si>
+  <si>
+    <t>"This is Course"</t>
+  </si>
+  <si>
+    <t>"Course is This"</t>
+  </si>
+  <si>
+    <t>Combine and Expand the source content Dynamically</t>
+  </si>
+  <si>
+    <t>Table.Combine([Data_Columns})</t>
+  </si>
+  <si>
+    <t>Table.ColumnNames(#Name of the table step)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then while expanding the table, replace the list of column name with the name of step of column Name </t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fucntion Command Bar </t>
   </si>
 </sst>
 </file>
@@ -126,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,9 +246,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -174,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,11 +282,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -195,13 +304,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,13 +358,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>60960</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>62865</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>876300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>308610</xdr:rowOff>
+          <xdr:rowOff>312420</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -247,7 +374,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B979A9E5-3A3F-DDCA-E13E-14C9D24299E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -268,23 +395,230 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>876300</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>304800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>83820</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>899160</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>861060</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2057" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>144780</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>99060</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>853440</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2058" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -556,12 +890,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{91017828-024D-4C4B-A481-6C32B1358857}">
+  <we:reference id="wa104381701" version="1.0.0.4" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104381701" version="1.0.0.4" store="wa104381701" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD99D2-52B7-4F1F-AFCD-214B73E2DC33}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +924,7 @@
     <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
@@ -599,10 +953,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -613,16 +967,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -631,45 +985,385 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>7</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="49">
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -677,18 +1371,28 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3:I5" r:id="rId1" tooltip="Github" display="Git Hub" xr:uid="{86EF59F5-15FF-448C-811E-E5AC6798E711}"/>
+    <hyperlink ref="I7:I9" r:id="rId2" display="Git HUb" xr:uid="{584ABEFD-6EBB-40EE-9ACC-685907487869}"/>
+    <hyperlink ref="I26:I28" r:id="rId3" display="YouTube" xr:uid="{CA53F63F-4C13-4BAF-8E83-F57C614271D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId7">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -707,9 +1411,121 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId9">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>304800</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2055" r:id="rId11">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>53340</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>899160</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2055" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2057" r:id="rId13">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>861060</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>609600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2057" r:id="rId13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2058" r:id="rId15">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>144780</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>99060</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>853440</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>83820</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2058" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC12B3B-6B8A-47AB-AFF2-B17AB2D5B327}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>